--- a/data/raw/response_traits/data faltante_NZamora.xlsx
+++ b/data/raw/response_traits/data faltante_NZamora.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="5640"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="124">
   <si>
     <t>familia</t>
   </si>
@@ -574,6 +574,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -583,10 +587,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -892,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -903,7 +903,7 @@
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="49.85546875" customWidth="1"/>
     <col min="5" max="6" width="69.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="28"/>
+    <col min="7" max="7" width="11.5703125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -948,7 +948,7 @@
       <c r="F2" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -971,7 +971,7 @@
       <c r="F3" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -994,7 +994,7 @@
       <c r="F4" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       <c r="F5" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
       <c r="F6" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       <c r="F7" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       <c r="F8" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       <c r="F9" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
       <c r="F10" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       <c r="F11" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
       <c r="F12" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       <c r="F13" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       <c r="F14" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       <c r="F15" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
       <c r="F16" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       <c r="F17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
       <c r="F18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       <c r="F19" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1362,7 +1362,7 @@
       <c r="F20" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       <c r="F21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       <c r="F22" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       <c r="F23" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       <c r="F24" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       <c r="F25" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       <c r="F26" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1523,7 +1523,7 @@
       <c r="F27" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       <c r="F28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="G28" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       <c r="F29" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="G29" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       <c r="F30" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
       <c r="F31" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G31" s="27" t="s">
+      <c r="G31" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1638,7 +1638,7 @@
       <c r="F32" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="G32" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="27" t="s">
+      <c r="G33" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="26" t="s">
         <v>89</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -1676,7 +1676,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75">
-      <c r="A36" s="24"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="15" t="s">
         <v>92</v>
       </c>
@@ -1685,7 +1685,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75">
-      <c r="A37" s="24"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="15" t="s">
         <v>94</v>
       </c>
@@ -1694,16 +1694,19 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75">
-      <c r="A38" s="24"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="15" t="s">
         <v>96</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>97</v>
       </c>
+      <c r="D38" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="15.75">
-      <c r="A39" s="24"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="15" t="s">
         <v>98</v>
       </c>
@@ -1712,7 +1715,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="27" t="s">
         <v>100</v>
       </c>
       <c r="B40" s="17" t="s">
@@ -1723,7 +1726,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75">
-      <c r="A41" s="25"/>
+      <c r="A41" s="27"/>
       <c r="B41" s="17" t="s">
         <v>102</v>
       </c>
@@ -1732,7 +1735,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75">
-      <c r="A42" s="25"/>
+      <c r="A42" s="27"/>
       <c r="B42" s="17" t="s">
         <v>104</v>
       </c>
@@ -1741,7 +1744,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75">
-      <c r="A43" s="25"/>
+      <c r="A43" s="27"/>
       <c r="B43" s="17" t="s">
         <v>105</v>
       </c>
@@ -1750,7 +1753,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="28" t="s">
         <v>107</v>
       </c>
       <c r="B44" s="19" t="s">
@@ -1761,7 +1764,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75">
-      <c r="A45" s="26"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="19" t="s">
         <v>110</v>
       </c>
@@ -1770,7 +1773,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75">
-      <c r="A46" s="26"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="19" t="s">
         <v>112</v>
       </c>
@@ -1779,7 +1782,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75">
-      <c r="A47" s="26"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="19" t="s">
         <v>113</v>
       </c>
